--- a/测试记录.xlsx
+++ b/测试记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chen_education\code_2024\c0_学习资料\通用孔明棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECA6B2-4568-432C-B05A-27548EA8A264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CAC769-AEEA-4CE3-875F-64B54B946692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="14483" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>函数简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>孔明棋变式初始格局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BicycleBFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,38 +505,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T1">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -540,192 +565,249 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D8">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D10">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D17">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D19">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D20">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D21">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>4</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>5</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -733,7 +815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -741,7 +823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -749,7 +831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -757,7 +839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -765,7 +847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>12</v>
       </c>
